--- a/Assets/StreamingAssets/monsters.xlsx
+++ b/Assets/StreamingAssets/monsters.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="monsters" sheetId="1" r:id="rId1"/>
-    <sheet name="hp" sheetId="2" r:id="rId2"/>
-    <sheet name="attack" sheetId="3" r:id="rId3"/>
-    <sheet name="attackspeed" sheetId="4" r:id="rId4"/>
-    <sheet name="att_dis" sheetId="5" r:id="rId5"/>
-    <sheet name="h_armor" sheetId="6" r:id="rId6"/>
-    <sheet name="move" sheetId="7" r:id="rId7"/>
+    <sheet name="buildings" sheetId="8" r:id="rId2"/>
+    <sheet name="hp" sheetId="2" r:id="rId3"/>
+    <sheet name="attack" sheetId="3" r:id="rId4"/>
+    <sheet name="attackspeed" sheetId="4" r:id="rId5"/>
+    <sheet name="att_dis" sheetId="5" r:id="rId6"/>
+    <sheet name="h_armor" sheetId="6" r:id="rId7"/>
+    <sheet name="move" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monsters!$A$1:$F$152</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>妙蛙种子</t>
   </si>
@@ -560,7 +561,7 @@
   <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F10" sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1337,6 +1338,352 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <f>B2</f>
+        <v>妙蛙种子</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C11" si="0">B3</f>
+        <v>妙蛙草</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>妙蛙花</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1">
+        <v>70</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>小火龙</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>火恐龙</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>喷火龙</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1">
+        <v>70</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>杰尼龟</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>卡咪龟</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>水箭龟</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>70</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>绿毛虫</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1794,7 +2141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -2066,7 +2413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
@@ -4505,7 +4852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -4818,7 +5165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -5580,12 +5927,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Assets/StreamingAssets/monsters.xlsx
+++ b/Assets/StreamingAssets/monsters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="monsters" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="att_dis" sheetId="5" r:id="rId6"/>
     <sheet name="h_armor" sheetId="6" r:id="rId7"/>
     <sheet name="move" sheetId="7" r:id="rId8"/>
+    <sheet name="resources" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monsters!$A$1:$F$152</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>妙蛙种子</t>
   </si>
@@ -205,6 +206,26 @@
   </si>
   <si>
     <t>addValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownAtFirst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1340,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -6300,4 +6321,54 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/StreamingAssets/monsters.xlsx
+++ b/Assets/StreamingAssets/monsters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="monsters" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,8 @@
     <sheet name="h_armor" sheetId="6" r:id="rId7"/>
     <sheet name="move" sheetId="7" r:id="rId8"/>
     <sheet name="resources" sheetId="9" r:id="rId9"/>
+    <sheet name="map" sheetId="10" r:id="rId10"/>
+    <sheet name="cell_price" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monsters!$A$1:$F$152</definedName>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>妙蛙种子</t>
   </si>
@@ -226,6 +228,30 @@
   </si>
   <si>
     <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1357,6 +1383,2654 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>8</v>
+      </c>
+      <c r="D91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+      <c r="D92">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="D94">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>8</v>
+      </c>
+      <c r="D96">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+      <c r="D97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
+      </c>
+      <c r="D99">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="D100">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>9</v>
+      </c>
+      <c r="D102">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>9</v>
+      </c>
+      <c r="D103">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>9</v>
+      </c>
+      <c r="D105">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <v>9</v>
+      </c>
+      <c r="D107">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>9</v>
+      </c>
+      <c r="D111">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>9</v>
+      </c>
+      <c r="C121">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D122">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
@@ -6320,6 +8994,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6327,7 +9002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/Assets/StreamingAssets/monsters.xlsx
+++ b/Assets/StreamingAssets/monsters.xlsx
@@ -9,15 +9,16 @@
   <sheets>
     <sheet name="monsters" sheetId="1" r:id="rId1"/>
     <sheet name="buildings" sheetId="8" r:id="rId2"/>
-    <sheet name="hp" sheetId="2" r:id="rId3"/>
-    <sheet name="attack" sheetId="3" r:id="rId4"/>
-    <sheet name="attackspeed" sheetId="4" r:id="rId5"/>
-    <sheet name="att_dis" sheetId="5" r:id="rId6"/>
-    <sheet name="h_armor" sheetId="6" r:id="rId7"/>
-    <sheet name="move" sheetId="7" r:id="rId8"/>
-    <sheet name="resources" sheetId="9" r:id="rId9"/>
-    <sheet name="map" sheetId="10" r:id="rId10"/>
-    <sheet name="cell_price" sheetId="11" r:id="rId11"/>
+    <sheet name="building_upgrate" sheetId="14" r:id="rId3"/>
+    <sheet name="hp" sheetId="2" r:id="rId4"/>
+    <sheet name="attack" sheetId="3" r:id="rId5"/>
+    <sheet name="attackspeed" sheetId="4" r:id="rId6"/>
+    <sheet name="att_dis" sheetId="5" r:id="rId7"/>
+    <sheet name="h_armor" sheetId="6" r:id="rId8"/>
+    <sheet name="move" sheetId="7" r:id="rId9"/>
+    <sheet name="resources" sheetId="9" r:id="rId10"/>
+    <sheet name="map" sheetId="10" r:id="rId11"/>
+    <sheet name="cell_price" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monsters!$A$1:$F$152</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>妙蛙种子</t>
   </si>
@@ -252,6 +253,30 @@
   </si>
   <si>
     <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrate_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_directly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_choose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentOwn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1385,9 +1410,68 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -3111,12 +3195,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4036,7 +4120,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4378,6 +4462,268 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>IF(C2,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>A3</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="0">IF(C3,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>A4</f>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>A5</f>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f>A6</f>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f>A7</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>A8</f>
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f>A9</f>
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f>A10</f>
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>A11</f>
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -4836,7 +5182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -5108,7 +5454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
@@ -7547,7 +7893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -7860,7 +8206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -8622,12 +8968,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8660,13 +9006,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -8676,7 +9022,7 @@
       </c>
       <c r="G2">
         <f>(B2+C2)*D2</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -8684,7 +9030,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -8699,8 +9045,8 @@
         <v>1000</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G15" si="0">(B3+C3)*D3</f>
-        <v>0.6</v>
+        <f>(B3+C3)*D3</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -8708,7 +9054,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8723,8 +9069,8 @@
         <v>1000</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
+        <f>(B4+C4)*D4</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -8732,7 +9078,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8747,8 +9093,8 @@
         <v>1000</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+        <f>(B5+C5)*D5</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -8756,7 +9102,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -8771,8 +9117,8 @@
         <v>1000</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
+        <f>(B6+C6)*D6</f>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -8780,7 +9126,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -8795,8 +9141,8 @@
         <v>1000</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>(B7+C7)*D7</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -8804,7 +9150,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -8819,8 +9165,8 @@
         <v>1000</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <f>(B8+C8)*D8</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -8828,7 +9174,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -8843,8 +9189,8 @@
         <v>1000</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
+        <f>(B9+C9)*D9</f>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -8852,7 +9198,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -8867,8 +9213,8 @@
         <v>1000</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
+        <f>(B10+C10)*D10</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -8876,7 +9222,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -8891,8 +9237,8 @@
         <v>1000</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
+        <f>(B11+C11)*D11</f>
+        <v>1.3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -8900,7 +9246,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -8915,8 +9261,8 @@
         <v>1000</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>(B12+C12)*D12</f>
+        <v>1.4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8924,7 +9270,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -8939,8 +9285,8 @@
         <v>1000</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
+        <f>(B13+C13)*D13</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -8948,7 +9294,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8963,8 +9309,8 @@
         <v>1000</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>1.7</v>
+        <f>(B14+C14)*D14</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -8972,7 +9318,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8987,58 +9333,32 @@
         <v>1000</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f>(B15+C15)*D15</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>1.8</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
+      <c r="G16">
+        <f>(B16+C16)*D16</f>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/monsters.xlsx
+++ b/Assets/StreamingAssets/monsters.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="monsters" sheetId="1" r:id="rId1"/>
-    <sheet name="buildings" sheetId="8" r:id="rId2"/>
-    <sheet name="building_upgrate" sheetId="14" r:id="rId3"/>
+    <sheet name="pokemons" sheetId="8" r:id="rId2"/>
+    <sheet name="pokemon_upgrate" sheetId="14" r:id="rId3"/>
     <sheet name="hp" sheetId="2" r:id="rId4"/>
     <sheet name="attack" sheetId="3" r:id="rId5"/>
     <sheet name="attackspeed" sheetId="4" r:id="rId6"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>妙蛙种子</t>
   </si>
@@ -277,6 +277,14 @@
   </si>
   <si>
     <t>currentOwn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1413,7 +1421,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1443,7 +1451,7 @@
         <v>1000</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1469,15 +1477,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1490,8 +1498,11 @@
       <c r="D1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1504,8 +1515,12 @@
       <c r="D2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <f>D2</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1518,8 +1533,12 @@
       <c r="D3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">D3</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1532,8 +1551,12 @@
       <c r="D4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1546,8 +1569,12 @@
       <c r="D5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1560,8 +1587,12 @@
       <c r="D6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1574,8 +1605,12 @@
       <c r="D7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1588,8 +1623,12 @@
       <c r="D8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1602,8 +1641,12 @@
       <c r="D9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1616,8 +1659,12 @@
       <c r="D10">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1630,8 +1677,12 @@
       <c r="D11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1644,8 +1695,12 @@
       <c r="D12">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1658,8 +1713,12 @@
       <c r="D13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1672,8 +1731,12 @@
       <c r="D14">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1686,8 +1749,12 @@
       <c r="D15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1700,8 +1767,12 @@
       <c r="D16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1714,8 +1785,12 @@
       <c r="D17">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1728,8 +1803,12 @@
       <c r="D18">
         <v>-1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1742,8 +1821,12 @@
       <c r="D19">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1756,8 +1839,12 @@
       <c r="D20">
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1770,8 +1857,12 @@
       <c r="D21">
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1784,8 +1875,12 @@
       <c r="D22">
         <v>-1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1798,8 +1893,12 @@
       <c r="D23">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1812,8 +1911,12 @@
       <c r="D24">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1826,8 +1929,12 @@
       <c r="D25">
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1840,8 +1947,12 @@
       <c r="D26">
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1854,8 +1965,12 @@
       <c r="D27">
         <v>-1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1868,8 +1983,12 @@
       <c r="D28">
         <v>-1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1882,8 +2001,12 @@
       <c r="D29">
         <v>-1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1896,8 +2019,12 @@
       <c r="D30">
         <v>-1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1910,8 +2037,12 @@
       <c r="D31">
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1924,8 +2055,12 @@
       <c r="D32">
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1938,8 +2073,12 @@
       <c r="D33">
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1952,8 +2091,12 @@
       <c r="D34">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1966,8 +2109,12 @@
       <c r="D35">
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1980,8 +2127,12 @@
       <c r="D36">
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1994,8 +2145,12 @@
       <c r="D37">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2008,8 +2163,12 @@
       <c r="D38">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2022,8 +2181,12 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2036,8 +2199,12 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2050,8 +2217,12 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2064,8 +2235,12 @@
       <c r="D42">
         <v>-1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2078,8 +2253,12 @@
       <c r="D43">
         <v>-1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2092,8 +2271,12 @@
       <c r="D44">
         <v>-1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2106,8 +2289,12 @@
       <c r="D45">
         <v>-1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2120,8 +2307,12 @@
       <c r="D46">
         <v>-1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2134,8 +2325,12 @@
       <c r="D47">
         <v>-1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2148,8 +2343,12 @@
       <c r="D48">
         <v>-1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2162,8 +2361,12 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2174,10 +2377,14 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-2</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2188,10 +2395,14 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-2</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2202,10 +2413,14 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-2</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2218,8 +2433,12 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2232,8 +2451,12 @@
       <c r="D54">
         <v>-1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2246,8 +2469,12 @@
       <c r="D55">
         <v>-1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2260,8 +2487,12 @@
       <c r="D56">
         <v>-1</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2274,8 +2505,12 @@
       <c r="D57">
         <v>-1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2288,8 +2523,12 @@
       <c r="D58">
         <v>-1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2302,8 +2541,12 @@
       <c r="D59">
         <v>-1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2316,8 +2559,12 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2328,10 +2575,14 @@
         <v>5</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-2</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2342,10 +2593,14 @@
         <v>5</v>
       </c>
       <c r="D62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-3</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2356,10 +2611,14 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-2</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2372,8 +2631,12 @@
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2386,8 +2649,12 @@
       <c r="D65">
         <v>-1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2400,8 +2667,12 @@
       <c r="D66">
         <v>-1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2414,8 +2685,12 @@
       <c r="D67">
         <v>-1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E67">
+        <f t="shared" ref="E67:E122" si="1">D67</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2428,8 +2703,12 @@
       <c r="D68">
         <v>-1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2442,8 +2721,12 @@
       <c r="D69">
         <v>-1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2456,8 +2739,12 @@
       <c r="D70">
         <v>-1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2470,8 +2757,12 @@
       <c r="D71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2482,10 +2773,14 @@
         <v>6</v>
       </c>
       <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-2</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2496,10 +2791,14 @@
         <v>6</v>
       </c>
       <c r="D73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-2</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2510,10 +2809,14 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-2</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2526,8 +2829,12 @@
       <c r="D75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2540,8 +2847,12 @@
       <c r="D76">
         <v>-1</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2554,8 +2865,12 @@
       <c r="D77">
         <v>-1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2568,8 +2883,12 @@
       <c r="D78">
         <v>-1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2582,8 +2901,12 @@
       <c r="D79">
         <v>-1</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2596,8 +2919,12 @@
       <c r="D80">
         <v>-1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2610,8 +2937,12 @@
       <c r="D81">
         <v>-1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2624,8 +2955,12 @@
       <c r="D82">
         <v>-1</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2638,8 +2973,12 @@
       <c r="D83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2652,8 +2991,12 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2666,8 +3009,12 @@
       <c r="D85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2680,8 +3027,12 @@
       <c r="D86">
         <v>-1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2694,8 +3045,12 @@
       <c r="D87">
         <v>-1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2708,8 +3063,12 @@
       <c r="D88">
         <v>-1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2722,8 +3081,12 @@
       <c r="D89">
         <v>-1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2736,8 +3099,12 @@
       <c r="D90">
         <v>-1</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2750,8 +3117,12 @@
       <c r="D91">
         <v>-1</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2764,8 +3135,12 @@
       <c r="D92">
         <v>-1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2778,8 +3153,12 @@
       <c r="D93">
         <v>-1</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2792,8 +3171,12 @@
       <c r="D94">
         <v>-1</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2806,8 +3189,12 @@
       <c r="D95">
         <v>-1</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2820,8 +3207,12 @@
       <c r="D96">
         <v>-1</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2834,8 +3225,12 @@
       <c r="D97">
         <v>-1</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2848,8 +3243,12 @@
       <c r="D98">
         <v>-1</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2862,8 +3261,12 @@
       <c r="D99">
         <v>-1</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2876,8 +3279,12 @@
       <c r="D100">
         <v>-1</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2890,8 +3297,12 @@
       <c r="D101">
         <v>-1</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2904,8 +3315,12 @@
       <c r="D102">
         <v>-1</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2918,8 +3333,12 @@
       <c r="D103">
         <v>-1</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2932,8 +3351,12 @@
       <c r="D104">
         <v>-1</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2946,8 +3369,12 @@
       <c r="D105">
         <v>-1</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2960,8 +3387,12 @@
       <c r="D106">
         <v>-1</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2974,8 +3405,12 @@
       <c r="D107">
         <v>-1</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2988,8 +3423,12 @@
       <c r="D108">
         <v>-1</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3002,8 +3441,12 @@
       <c r="D109">
         <v>-1</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3016,8 +3459,12 @@
       <c r="D110">
         <v>-1</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3030,8 +3477,12 @@
       <c r="D111">
         <v>-1</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3044,8 +3495,12 @@
       <c r="D112">
         <v>-1</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3058,8 +3513,12 @@
       <c r="D113">
         <v>-1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3072,8 +3531,12 @@
       <c r="D114">
         <v>-1</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3086,8 +3549,12 @@
       <c r="D115">
         <v>-1</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3100,8 +3567,12 @@
       <c r="D116">
         <v>-1</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3114,8 +3585,12 @@
       <c r="D117">
         <v>-1</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3128,8 +3603,12 @@
       <c r="D118">
         <v>-1</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3142,8 +3621,12 @@
       <c r="D119">
         <v>-1</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3156,8 +3639,12 @@
       <c r="D120">
         <v>-1</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3170,8 +3657,12 @@
       <c r="D121">
         <v>-1</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3182,6 +3673,10 @@
         <v>10</v>
       </c>
       <c r="D122">
+        <v>-1</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -4117,15 +4612,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4153,8 +4648,11 @@
       <c r="I1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4183,8 +4681,11 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4213,8 +4714,11 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4243,8 +4747,11 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4273,8 +4780,11 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4303,8 +4813,11 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4333,8 +4846,11 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4363,8 +4879,11 @@
       <c r="I8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4393,8 +4912,11 @@
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4423,8 +4945,11 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4452,6 +4977,9 @@
       </c>
       <c r="I11">
         <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4466,7 +4994,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4508,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>A2</f>
+        <f t="shared" ref="D2:D11" si="0">A2</f>
         <v>1</v>
       </c>
       <c r="E2">
@@ -4530,14 +5058,14 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f>A3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="0">IF(C3,0,1)</f>
+        <f t="shared" ref="F3:F11" si="1">IF(C3,0,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4552,14 +5080,14 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <f>A4</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4574,14 +5102,14 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f>A5</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4596,14 +5124,14 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4618,14 +5146,14 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <f>A7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4640,14 +5168,14 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f>A8</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4662,14 +5190,14 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <f>A9</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4684,14 +5212,14 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <f>A10</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4706,14 +5234,14 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f>A11</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9021,7 +9549,7 @@
         <v>1000</v>
       </c>
       <c r="G2">
-        <f>(B2+C2)*D2</f>
+        <f t="shared" ref="G2:G16" si="0">(B2+C2)*D2</f>
         <v>0</v>
       </c>
     </row>
@@ -9045,7 +9573,7 @@
         <v>1000</v>
       </c>
       <c r="G3">
-        <f>(B3+C3)*D3</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
@@ -9069,7 +9597,7 @@
         <v>1000</v>
       </c>
       <c r="G4">
-        <f>(B4+C4)*D4</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
@@ -9093,7 +9621,7 @@
         <v>1000</v>
       </c>
       <c r="G5">
-        <f>(B5+C5)*D5</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
     </row>
@@ -9117,7 +9645,7 @@
         <v>1000</v>
       </c>
       <c r="G6">
-        <f>(B6+C6)*D6</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
@@ -9141,7 +9669,7 @@
         <v>1000</v>
       </c>
       <c r="G7">
-        <f>(B7+C7)*D7</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
@@ -9165,7 +9693,7 @@
         <v>1000</v>
       </c>
       <c r="G8">
-        <f>(B8+C8)*D8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9189,7 +9717,7 @@
         <v>1000</v>
       </c>
       <c r="G9">
-        <f>(B9+C9)*D9</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -9213,7 +9741,7 @@
         <v>1000</v>
       </c>
       <c r="G10">
-        <f>(B10+C10)*D10</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9237,7 +9765,7 @@
         <v>1000</v>
       </c>
       <c r="G11">
-        <f>(B11+C11)*D11</f>
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
     </row>
@@ -9261,7 +9789,7 @@
         <v>1000</v>
       </c>
       <c r="G12">
-        <f>(B12+C12)*D12</f>
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
     </row>
@@ -9285,7 +9813,7 @@
         <v>1000</v>
       </c>
       <c r="G13">
-        <f>(B13+C13)*D13</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
@@ -9309,7 +9837,7 @@
         <v>1000</v>
       </c>
       <c r="G14">
-        <f>(B14+C14)*D14</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
     </row>
@@ -9333,7 +9861,7 @@
         <v>1000</v>
       </c>
       <c r="G15">
-        <f>(B15+C15)*D15</f>
+        <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
     </row>
@@ -9357,7 +9885,7 @@
         <v>1000</v>
       </c>
       <c r="G16">
-        <f>(B16+C16)*D16</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>

--- a/Assets/StreamingAssets/monsters.xlsx
+++ b/Assets/StreamingAssets/monsters.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="monsters" sheetId="1" r:id="rId1"/>
+    <sheet name="setting" sheetId="16" r:id="rId1"/>
     <sheet name="pokemons" sheetId="8" r:id="rId2"/>
     <sheet name="pokemon_upgrate" sheetId="14" r:id="rId3"/>
     <sheet name="hp" sheetId="2" r:id="rId4"/>
@@ -20,15 +20,12 @@
     <sheet name="map" sheetId="10" r:id="rId11"/>
     <sheet name="cell_price" sheetId="11" r:id="rId12"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">monsters!$A$1:$F$152</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>妙蛙种子</t>
   </si>
@@ -92,199 +89,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>baseHpRecover</t>
+  </si>
+  <si>
+    <t>attacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_dis_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownAtFirst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrate_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_directly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_choose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentOwn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxAttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseAttackInterval</t>
+  </si>
+  <si>
+    <t>baseArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>maxHpAddedValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxHpRate</t>
+    <t>hpRecoverAddedValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxHp</t>
+    <t>hpRecoverRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MinMaxHp</t>
+    <t>minHArmor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxMaxHp</t>
+    <t>maxHArmor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>baseHpRecover</t>
-  </si>
-  <si>
-    <t>hpRecoverAddedValue</t>
-  </si>
-  <si>
-    <t>hpRecoverRate</t>
-  </si>
-  <si>
-    <t>hpRecover</t>
-  </si>
-  <si>
-    <t>attacks</t>
+    <t>damageHArmorModifiedValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>base_int</t>
+    <t>armorAddedValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time_value</t>
+    <t>moveSpeedAddedvalue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>min</t>
+    <t>moveSpeedAddedRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>max</t>
+    <t>minMoveSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>att_speed</t>
+    <t>maxMoveSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interval</t>
+    <t>minAttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>min</t>
+    <t>attackSpeedTimeModifiedValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>max</t>
+    <t>baseAttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>base</t>
+    <t>maxHpRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>damage_md_value</t>
+    <t>minMaxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage_percent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>att_dis_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>introduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ownAtFirst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrate_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_directly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_choose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentOwn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backup</t>
+    <t>maxMaxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,9 +318,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -638,778 +626,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="A1:I11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="str">
-        <f>B2</f>
-        <v>妙蛙种子</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C11" si="0">B3</f>
-        <v>妙蛙草</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>妙蛙花</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1">
-        <v>70</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>24</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>小火龙</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>火恐龙</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
-        <v>30</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>喷火龙</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1">
-        <v>70</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>24</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>杰尼龟</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>卡咪龟</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>11</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>水箭龟</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1">
-        <v>70</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>24</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>绿毛虫</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F152" s="1"/>
+      <c r="B10" s="2">
+        <f>4*B7</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2">
+        <f>-B11/2</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2">
+        <f>9*B11</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F152">
-    <sortState ref="A2:F152">
-      <sortCondition ref="A1:A152"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1420,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1428,16 +803,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1445,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -1459,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -1487,19 +862,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -3702,10 +3077,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -4612,15 +3987,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4628,345 +4003,305 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="str">
-        <f>B2</f>
-        <v>妙蛙种子</v>
+      <c r="C2">
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
         <v>5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="E2" s="1">
         <v>10</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C11" si="0">B3</f>
-        <v>妙蛙草</v>
+      <c r="C3">
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
+      <c r="E3" s="1">
         <v>30</v>
       </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
       <c r="G3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>妙蛙花</v>
+      <c r="C4">
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
         <v>25</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E4" s="1">
         <v>70</v>
       </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
       <c r="G4">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H4">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>小火龙</v>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5" s="1">
         <v>10</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>火恐龙</v>
+      <c r="C6">
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
+      <c r="E6" s="1">
         <v>30</v>
       </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
       <c r="G6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>喷火龙</v>
+      <c r="C7">
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
         <v>25</v>
       </c>
-      <c r="F7" s="1">
+      <c r="E7" s="1">
         <v>70</v>
       </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
       <c r="G7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>杰尼龟</v>
+      <c r="C8">
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="1">
+      <c r="E8" s="1">
         <v>10</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>卡咪龟</v>
+      <c r="C9">
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
         <v>10</v>
       </c>
-      <c r="F9" s="1">
+      <c r="E9" s="1">
         <v>30</v>
       </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
       <c r="G9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>水箭龟</v>
+      <c r="C10">
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
         <v>25</v>
       </c>
-      <c r="F10" s="1">
+      <c r="E10" s="1">
         <v>70</v>
       </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
       <c r="G10">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>绿毛虫</v>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
@@ -4976,9 +4311,6 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
         <v>0</v>
       </c>
     </row>
@@ -5010,19 +4342,19 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -5253,15 +4585,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5271,32 +4603,8 @@
       <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5306,34 +4614,8 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>D2*C2+D2*B2</f>
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>10000</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <f>J2*I2+J2*H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5343,34 +4625,8 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">D3*C3+D3*B3</f>
-        <v>150</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>10000</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K12" si="1">J3*I3+J3*H3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5378,36 +4634,10 @@
         <v>200</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>10000</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5415,36 +4645,10 @@
         <v>250</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>10000</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5452,36 +4656,10 @@
         <v>300</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>10000</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5489,36 +4667,10 @@
         <v>350</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>10000</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5526,36 +4678,10 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>10000</v>
-      </c>
-      <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5563,36 +4689,10 @@
         <v>450</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>10000</v>
-      </c>
-      <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5600,36 +4700,10 @@
         <v>500</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>10000</v>
-      </c>
-      <c r="H10">
         <v>5</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5637,36 +4711,10 @@
         <v>550</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>550</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>10000</v>
-      </c>
-      <c r="H11">
         <v>5</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5674,39 +4722,13 @@
         <v>600</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>10000</v>
-      </c>
-      <c r="H12">
-        <v>-10</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
         <v>-10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5714,8 +4736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5725,7 +4747,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -5984,2435 +5006,100 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>5000</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <f>(B2*C2)/(C2+F2)</f>
-        <v>1.8181818181818181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>990</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>5000</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G31" si="0">(B3*C3)/(C3+F3)</f>
-        <v>1.8165137614678899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>980</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>5000</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>1.8148148148148149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>970</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>5000</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>1.8130841121495327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>960</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>5000</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>1.8113207547169812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>950</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>5000</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1.8095238095238095</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>940</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>5000</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1.8076923076923077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>930</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>5000</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>1.8058252427184467</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>920</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>5000</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1.803921568627451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>910</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>5000</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>1.801980198019802</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1.9</v>
-      </c>
-      <c r="C12">
-        <v>1000</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>5000</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>1.7272727272727273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1.9</v>
-      </c>
-      <c r="C13">
-        <v>990</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>5000</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>1.7256880733944955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1.9</v>
-      </c>
-      <c r="C14">
-        <v>980</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>5000</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>1.7240740740740741</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1.9</v>
-      </c>
-      <c r="C15">
-        <v>970</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>5000</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>1.7224299065420561</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1.9</v>
-      </c>
-      <c r="C16">
-        <v>960</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>5000</v>
-      </c>
-      <c r="F16">
-        <v>100</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>1.7207547169811321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1.9</v>
-      </c>
-      <c r="C17">
-        <v>950</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>5000</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>1.7190476190476192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1.9</v>
-      </c>
-      <c r="C18">
-        <v>940</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>5000</v>
-      </c>
-      <c r="F18">
-        <v>100</v>
-      </c>
-      <c r="G18">
-        <f>(B18*C18)/(C18+F18)</f>
-        <v>1.7173076923076922</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1.9</v>
-      </c>
-      <c r="C19">
-        <v>930</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>5000</v>
-      </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
-      <c r="G19">
-        <f>(B19*C19)/(C19+F19)</f>
-        <v>1.7155339805825243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.9</v>
-      </c>
-      <c r="C20">
-        <v>920</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>5000</v>
-      </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
-      <c r="G20">
-        <f>(B20*C20)/(C20+F20)</f>
-        <v>1.7137254901960783</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1.9</v>
-      </c>
-      <c r="C21">
-        <v>910</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>5000</v>
-      </c>
-      <c r="F21">
-        <v>100</v>
-      </c>
-      <c r="G21">
-        <f>(B21*C21)/(C21+F21)</f>
-        <v>1.7118811881188118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1.8</v>
-      </c>
-      <c r="C22">
-        <v>1000</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>5000</v>
-      </c>
-      <c r="F22">
-        <v>100</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>1.6363636363636365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1.8</v>
-      </c>
-      <c r="C23">
-        <v>990</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>5000</v>
-      </c>
-      <c r="F23">
-        <v>100</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>1.6348623853211008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1.8</v>
-      </c>
-      <c r="C24">
-        <v>980</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>5000</v>
-      </c>
-      <c r="F24">
-        <v>100</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>1.6333333333333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1.8</v>
-      </c>
-      <c r="C25">
-        <v>970</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>5000</v>
-      </c>
-      <c r="F25">
-        <v>100</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>1.6317757009345795</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1.8</v>
-      </c>
-      <c r="C26">
-        <v>960</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>5000</v>
-      </c>
-      <c r="F26">
-        <v>100</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>1.6301886792452831</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1.8</v>
-      </c>
-      <c r="C27">
-        <v>950</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>5000</v>
-      </c>
-      <c r="F27">
-        <v>100</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>1.6285714285714286</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1.8</v>
-      </c>
-      <c r="C28">
-        <v>940</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>5000</v>
-      </c>
-      <c r="F28">
-        <v>100</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>1.6269230769230769</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1.8</v>
-      </c>
-      <c r="C29">
-        <v>930</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>5000</v>
-      </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>1.6252427184466018</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1.8</v>
-      </c>
-      <c r="C30">
-        <v>920</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>5000</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>1.6235294117647059</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1.8</v>
-      </c>
-      <c r="C31">
-        <v>910</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>5000</v>
-      </c>
-      <c r="F31">
-        <v>100</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>1.6217821782178219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1.7</v>
-      </c>
-      <c r="C32">
-        <v>1000</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>5000</v>
-      </c>
-      <c r="F32">
-        <v>100</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ref="G32:G61" si="1">(B32*C32)/(C32+F32)</f>
-        <v>1.5454545454545454</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1.7</v>
-      </c>
-      <c r="C33">
-        <v>990</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>5000</v>
-      </c>
-      <c r="F33">
-        <v>100</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>1.5440366972477064</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>1.7</v>
-      </c>
-      <c r="C34">
-        <v>980</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>5000</v>
-      </c>
-      <c r="F34">
-        <v>100</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>1.5425925925925925</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>1.7</v>
-      </c>
-      <c r="C35">
-        <v>970</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>5000</v>
-      </c>
-      <c r="F35">
-        <v>100</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>1.5411214953271029</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>1.7</v>
-      </c>
-      <c r="C36">
-        <v>960</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>5000</v>
-      </c>
-      <c r="F36">
-        <v>100</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>1.5396226415094341</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>1.7</v>
-      </c>
-      <c r="C37">
-        <v>950</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>5000</v>
-      </c>
-      <c r="F37">
-        <v>100</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>1.5380952380952382</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>1.7</v>
-      </c>
-      <c r="C38">
-        <v>940</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>5000</v>
-      </c>
-      <c r="F38">
-        <v>100</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>1.5365384615384616</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>1.7</v>
-      </c>
-      <c r="C39">
-        <v>930</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>5000</v>
-      </c>
-      <c r="F39">
-        <v>100</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>1.5349514563106796</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>1.7</v>
-      </c>
-      <c r="C40">
-        <v>920</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>5000</v>
-      </c>
-      <c r="F40">
-        <v>100</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>1.5333333333333334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>1.7</v>
-      </c>
-      <c r="C41">
-        <v>910</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>5000</v>
-      </c>
-      <c r="F41">
-        <v>100</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>1.5316831683168317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>1.6</v>
-      </c>
-      <c r="C42">
-        <v>1000</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>5000</v>
-      </c>
-      <c r="F42">
-        <v>100</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>1.4545454545454546</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>1.6</v>
-      </c>
-      <c r="C43">
-        <v>990</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>5000</v>
-      </c>
-      <c r="F43">
-        <v>100</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>1.453211009174312</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>1.6</v>
-      </c>
-      <c r="C44">
-        <v>980</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>5000</v>
-      </c>
-      <c r="F44">
-        <v>100</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>1.4518518518518519</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>1.6</v>
-      </c>
-      <c r="C45">
-        <v>970</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>5000</v>
-      </c>
-      <c r="F45">
-        <v>100</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>1.4504672897196262</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>1.6</v>
-      </c>
-      <c r="C46">
-        <v>960</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>5000</v>
-      </c>
-      <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>1.4490566037735848</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>1.6</v>
-      </c>
-      <c r="C47">
-        <v>950</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>5000</v>
-      </c>
-      <c r="F47">
-        <v>100</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="1"/>
-        <v>1.4476190476190476</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>1.6</v>
-      </c>
-      <c r="C48">
-        <v>940</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>5000</v>
-      </c>
-      <c r="F48">
-        <v>100</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>1.4461538461538461</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>1.6</v>
-      </c>
-      <c r="C49">
-        <v>930</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>5000</v>
-      </c>
-      <c r="F49">
-        <v>100</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="1"/>
-        <v>1.4446601941747572</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>1.6</v>
-      </c>
-      <c r="C50">
-        <v>920</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>5000</v>
-      </c>
-      <c r="F50">
-        <v>100</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>1.4431372549019608</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>1.6</v>
-      </c>
-      <c r="C51">
-        <v>910</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>5000</v>
-      </c>
-      <c r="F51">
-        <v>100</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
-        <v>1.4415841584158415</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>1.5</v>
-      </c>
-      <c r="C52">
-        <v>1000</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>5000</v>
-      </c>
-      <c r="F52">
-        <v>100</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>1.3636363636363635</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>1.5</v>
-      </c>
-      <c r="C53">
-        <v>990</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>5000</v>
-      </c>
-      <c r="F53">
-        <v>100</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
-        <v>1.3623853211009174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>1.5</v>
-      </c>
-      <c r="C54">
-        <v>980</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>5000</v>
-      </c>
-      <c r="F54">
-        <v>100</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
-        <v>1.3611111111111112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>1.5</v>
-      </c>
-      <c r="C55">
-        <v>970</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>5000</v>
-      </c>
-      <c r="F55">
-        <v>100</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
-        <v>1.3598130841121496</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>1.5</v>
-      </c>
-      <c r="C56">
-        <v>960</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>5000</v>
-      </c>
-      <c r="F56">
-        <v>100</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>1.3584905660377358</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>1.5</v>
-      </c>
-      <c r="C57">
-        <v>950</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>5000</v>
-      </c>
-      <c r="F57">
-        <v>100</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>1.3571428571428572</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>1.5</v>
-      </c>
-      <c r="C58">
-        <v>940</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>5000</v>
-      </c>
-      <c r="F58">
-        <v>100</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="1"/>
-        <v>1.3557692307692308</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>1.5</v>
-      </c>
-      <c r="C59">
-        <v>930</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>5000</v>
-      </c>
-      <c r="F59">
-        <v>100</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="1"/>
-        <v>1.354368932038835</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>1.5</v>
-      </c>
-      <c r="C60">
-        <v>920</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>5000</v>
-      </c>
-      <c r="F60">
-        <v>100</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
-        <v>1.3529411764705883</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>1.5</v>
-      </c>
-      <c r="C61">
-        <v>910</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>5000</v>
-      </c>
-      <c r="F61">
-        <v>100</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="1"/>
-        <v>1.3514851485148516</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>1.4</v>
-      </c>
-      <c r="C62">
-        <v>1000</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>5000</v>
-      </c>
-      <c r="F62">
-        <v>100</v>
-      </c>
-      <c r="G62">
-        <f t="shared" ref="G62:G101" si="2">(B62*C62)/(C62+F62)</f>
-        <v>1.2727272727272727</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>1.4</v>
-      </c>
-      <c r="C63">
-        <v>990</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>5000</v>
-      </c>
-      <c r="F63">
-        <v>100</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="2"/>
-        <v>1.271559633027523</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>1.4</v>
-      </c>
-      <c r="C64">
-        <v>980</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>5000</v>
-      </c>
-      <c r="F64">
-        <v>100</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="2"/>
-        <v>1.2703703703703704</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>1.4</v>
-      </c>
-      <c r="C65">
-        <v>970</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>5000</v>
-      </c>
-      <c r="F65">
-        <v>100</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="2"/>
-        <v>1.2691588785046728</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>1.4</v>
-      </c>
-      <c r="C66">
-        <v>960</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>5000</v>
-      </c>
-      <c r="F66">
-        <v>100</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="2"/>
-        <v>1.2679245283018867</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>1.4</v>
-      </c>
-      <c r="C67">
-        <v>950</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>5000</v>
-      </c>
-      <c r="F67">
-        <v>100</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="2"/>
-        <v>1.2666666666666666</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>1.4</v>
-      </c>
-      <c r="C68">
-        <v>940</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>5000</v>
-      </c>
-      <c r="F68">
-        <v>100</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="2"/>
-        <v>1.2653846153846153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>1.4</v>
-      </c>
-      <c r="C69">
-        <v>930</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>5000</v>
-      </c>
-      <c r="F69">
-        <v>100</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="2"/>
-        <v>1.2640776699029126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>1.4</v>
-      </c>
-      <c r="C70">
-        <v>920</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>5000</v>
-      </c>
-      <c r="F70">
-        <v>100</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="2"/>
-        <v>1.2627450980392156</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>1.4</v>
-      </c>
-      <c r="C71">
-        <v>910</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>5000</v>
-      </c>
-      <c r="F71">
-        <v>100</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="2"/>
-        <v>1.2613861386138614</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>1.3</v>
-      </c>
-      <c r="C72">
-        <v>1000</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>5000</v>
-      </c>
-      <c r="F72">
-        <v>100</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="2"/>
-        <v>1.1818181818181819</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>1.3</v>
-      </c>
-      <c r="C73">
-        <v>990</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>5000</v>
-      </c>
-      <c r="F73">
-        <v>100</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="2"/>
-        <v>1.1807339449541285</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>1.3</v>
-      </c>
-      <c r="C74">
-        <v>980</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>5000</v>
-      </c>
-      <c r="F74">
-        <v>100</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="2"/>
-        <v>1.1796296296296296</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>1.3</v>
-      </c>
-      <c r="C75">
-        <v>970</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>5000</v>
-      </c>
-      <c r="F75">
-        <v>100</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="2"/>
-        <v>1.1785046728971962</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>1.3</v>
-      </c>
-      <c r="C76">
-        <v>960</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>5000</v>
-      </c>
-      <c r="F76">
-        <v>100</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="2"/>
-        <v>1.1773584905660377</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>1.3</v>
-      </c>
-      <c r="C77">
-        <v>950</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>5000</v>
-      </c>
-      <c r="F77">
-        <v>100</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="2"/>
-        <v>1.1761904761904762</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>1.3</v>
-      </c>
-      <c r="C78">
-        <v>940</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>5000</v>
-      </c>
-      <c r="F78">
-        <v>100</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="2"/>
-        <v>1.175</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>1.3</v>
-      </c>
-      <c r="C79">
-        <v>930</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>5000</v>
-      </c>
-      <c r="F79">
-        <v>100</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="2"/>
-        <v>1.1737864077669904</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>1.3</v>
-      </c>
-      <c r="C80">
-        <v>920</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>5000</v>
-      </c>
-      <c r="F80">
-        <v>100</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="2"/>
-        <v>1.1725490196078432</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>1.3</v>
-      </c>
-      <c r="C81">
-        <v>910</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>5000</v>
-      </c>
-      <c r="F81">
-        <v>100</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="2"/>
-        <v>1.1712871287128712</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>1.2</v>
-      </c>
-      <c r="C82">
-        <v>1000</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>5000</v>
-      </c>
-      <c r="F82">
-        <v>100</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="2"/>
-        <v>1.0909090909090908</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>1.2</v>
-      </c>
-      <c r="C83">
-        <v>990</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>5000</v>
-      </c>
-      <c r="F83">
-        <v>100</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="2"/>
-        <v>1.0899082568807339</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>1.2</v>
-      </c>
-      <c r="C84">
-        <v>980</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>5000</v>
-      </c>
-      <c r="F84">
-        <v>100</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="2"/>
-        <v>1.0888888888888888</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>1.2</v>
-      </c>
-      <c r="C85">
-        <v>970</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>5000</v>
-      </c>
-      <c r="F85">
-        <v>100</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="2"/>
-        <v>1.0878504672897196</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>1.2</v>
-      </c>
-      <c r="C86">
-        <v>960</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>5000</v>
-      </c>
-      <c r="F86">
-        <v>100</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="2"/>
-        <v>1.0867924528301887</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>1.2</v>
-      </c>
-      <c r="C87">
-        <v>950</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>5000</v>
-      </c>
-      <c r="F87">
-        <v>100</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="2"/>
-        <v>1.0857142857142856</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>1.2</v>
-      </c>
-      <c r="C88">
-        <v>940</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>5000</v>
-      </c>
-      <c r="F88">
-        <v>100</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="2"/>
-        <v>1.0846153846153845</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>1.2</v>
-      </c>
-      <c r="C89">
-        <v>930</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>5000</v>
-      </c>
-      <c r="F89">
-        <v>100</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="2"/>
-        <v>1.083495145631068</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>1.2</v>
-      </c>
-      <c r="C90">
-        <v>920</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>5000</v>
-      </c>
-      <c r="F90">
-        <v>100</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="2"/>
-        <v>1.0823529411764705</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>1.2</v>
-      </c>
-      <c r="C91">
-        <v>910</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>5000</v>
-      </c>
-      <c r="F91">
-        <v>100</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="2"/>
-        <v>1.0811881188118813</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="C92">
-        <v>1000</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>5000</v>
-      </c>
-      <c r="F92">
-        <v>100</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C93">
-        <v>990</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>5000</v>
-      </c>
-      <c r="F93">
-        <v>100</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="2"/>
-        <v>0.99908256880733948</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C94">
-        <v>980</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>5000</v>
-      </c>
-      <c r="F94">
-        <v>100</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="2"/>
-        <v>0.99814814814814812</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C95">
-        <v>970</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>5000</v>
-      </c>
-      <c r="F95">
-        <v>100</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="2"/>
-        <v>0.99719626168224296</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C96">
-        <v>960</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>5000</v>
-      </c>
-      <c r="F96">
-        <v>100</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="2"/>
-        <v>0.99622641509433962</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C97">
-        <v>950</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>5000</v>
-      </c>
-      <c r="F97">
-        <v>100</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="2"/>
-        <v>0.99523809523809526</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C98">
-        <v>940</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>5000</v>
-      </c>
-      <c r="F98">
-        <v>100</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="2"/>
-        <v>0.99423076923076925</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C99">
-        <v>930</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>5000</v>
-      </c>
-      <c r="F99">
-        <v>100</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="2"/>
-        <v>0.99320388349514577</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C100">
-        <v>920</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>5000</v>
-      </c>
-      <c r="F100">
-        <v>100</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="2"/>
-        <v>0.99215686274509818</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C101">
-        <v>910</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>5000</v>
-      </c>
-      <c r="F101">
-        <v>100</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="2"/>
-        <v>0.99108910891089119</v>
       </c>
     </row>
   </sheetData>
@@ -8426,7 +5113,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8436,10 +5123,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -8736,758 +5423,212 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>-D2/2</f>
-        <v>-50</v>
-      </c>
-      <c r="C2">
-        <f>9*D2</f>
-        <v>900</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>E2+F2</f>
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <f>D2/(D2+G2)</f>
-        <v>0.90909090909090906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B25" si="0">-D3/2</f>
-        <v>-50</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C25" si="1">9*D3</f>
-        <v>900</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
         <v>12</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G25" si="2">E3+F3</f>
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H25" si="3">D3/(D3+G3)</f>
-        <v>0.8928571428571429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>-50</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
         <v>14</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="3"/>
-        <v>0.8771929824561403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>-50</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
         <v>16</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>0.86206896551724133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>-50</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
         <v>18</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>0.84745762711864403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>-50</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
         <v>20</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>-45</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>810</v>
-      </c>
-      <c r="D8">
-        <v>90</v>
-      </c>
-      <c r="E8">
         <v>10</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>-45</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>810</v>
-      </c>
-      <c r="D9">
-        <v>90</v>
-      </c>
-      <c r="E9">
         <v>12</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>0.88235294117647056</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>-45</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>810</v>
-      </c>
-      <c r="D10">
-        <v>90</v>
-      </c>
-      <c r="E10">
         <v>14</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>0.86538461538461542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>-45</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>810</v>
-      </c>
-      <c r="D11">
-        <v>90</v>
-      </c>
-      <c r="E11">
         <v>16</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>0.84905660377358494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>-45</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>810</v>
-      </c>
-      <c r="D12">
-        <v>90</v>
-      </c>
-      <c r="E12">
         <v>18</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>-45</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>810</v>
-      </c>
-      <c r="D13">
-        <v>90</v>
-      </c>
-      <c r="E13">
         <v>20</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>0.81818181818181823</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>-40</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="D14">
-        <v>80</v>
-      </c>
-      <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>-40</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="D15">
-        <v>80</v>
-      </c>
-      <c r="E15">
         <v>12</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
-        <v>0.86956521739130432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>-40</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="D16">
-        <v>80</v>
-      </c>
-      <c r="E16">
         <v>14</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
-        <v>0.85106382978723405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>-40</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="D17">
-        <v>80</v>
-      </c>
-      <c r="E17">
         <v>16</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>-40</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="D18">
-        <v>80</v>
-      </c>
-      <c r="E18">
         <v>18</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>0.81632653061224492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>-40</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="D19">
-        <v>80</v>
-      </c>
-      <c r="E19">
         <v>20</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>-35</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>630</v>
-      </c>
-      <c r="D20">
-        <v>70</v>
-      </c>
-      <c r="E20">
         <v>10</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>-35</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>630</v>
-      </c>
-      <c r="D21">
-        <v>70</v>
-      </c>
-      <c r="E21">
         <v>12</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="3"/>
-        <v>0.85365853658536583</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>-35</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>630</v>
-      </c>
-      <c r="D22">
-        <v>70</v>
-      </c>
-      <c r="E22">
         <v>14</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="3"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>-35</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>630</v>
-      </c>
-      <c r="D23">
-        <v>70</v>
-      </c>
-      <c r="E23">
         <v>16</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="3"/>
-        <v>0.81395348837209303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>-35</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>630</v>
-      </c>
-      <c r="D24">
-        <v>70</v>
-      </c>
-      <c r="E24">
         <v>18</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
-        <v>0.79545454545454541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>-35</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>630</v>
-      </c>
-      <c r="D25">
-        <v>70</v>
-      </c>
-      <c r="E25">
         <v>20</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="3"/>
-        <v>0.77777777777777779</v>
       </c>
     </row>
   </sheetData>
@@ -9498,394 +5639,139 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1000</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G16" si="0">(B2+C2)*D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1000</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0.6</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1000</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1000</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1000</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1000</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1000</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1000</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1.2</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1000</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1.3</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1000</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1.4</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1000</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1.5</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1000</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1.6</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1000</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1.7</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1000</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.8</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1000</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>

--- a/Assets/StreamingAssets/monsters.xlsx
+++ b/Assets/StreamingAssets/monsters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="setting" sheetId="16" r:id="rId1"/>
@@ -3990,7 +3990,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4047,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>11</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>24</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>11</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>24</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4221,7 +4221,7 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>11</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>24</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4736,7 +4736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -5641,8 +5641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
